--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value684.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value684.xlsx
@@ -354,7 +354,7 @@
         <v>3.001000453339842</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.4849188843321681</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value684.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value684.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.838408374931858</v>
+        <v>1.500139951705933</v>
       </c>
       <c r="B1">
-        <v>3.001000453339842</v>
+        <v>1.708860039710999</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.718041300773621</v>
       </c>
       <c r="D1">
-        <v>0.4849188843321681</v>
+        <v>2.148695945739746</v>
       </c>
       <c r="E1">
-        <v>0.3675347632676068</v>
+        <v>3.241360187530518</v>
       </c>
     </row>
   </sheetData>
